--- a/figure-definition.xlsx
+++ b/figure-definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1502AB-B762-2E49-B2BD-DD78A6B6D22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9063F316-CF4A-9F48-8841-367E90625749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{3104778C-1A82-0B46-BC79-3A4F8C1B0499}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>REPORT</t>
   </si>
   <si>
-    <t>PREPROCESSING</t>
-  </si>
-  <si>
     <t>PLOT</t>
   </si>
   <si>
@@ -91,13 +88,16 @@
     <t>seasonal-adj</t>
   </si>
   <si>
-    <t>xlsx</t>
-  </si>
-  <si>
     <t>sheet</t>
   </si>
   <si>
     <t>date-to-cols</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>DATA / PROCESSING</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -566,7 +566,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="2"/>
       <c r="K1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -582,25 +582,25 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
